--- a/Python/litigation/LEGACY/litigation_template.xlsx
+++ b/Python/litigation/LEGACY/litigation_template.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/projects/repo/personal-academy/Python/litigation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaovitor/projects/repo/personal-academy/Python/litigation/LEGACY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267F48B4-C5B0-4345-93DF-0509D12CC439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16100" xr2:uid="{7DF4963E-3523-1C42-A25C-237166D8E9B4}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16100"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,12 +45,6 @@
     <t>CLIENTE</t>
   </si>
   <si>
-    <t>ADVOGADO ENCARREGADO</t>
-  </si>
-  <si>
-    <t>VALOR ESPERADO</t>
-  </si>
-  <si>
     <t>Gislaine Mendes Cunha</t>
   </si>
   <si>
@@ -55,25 +54,31 @@
     <t>Rudy Pereira Pires</t>
   </si>
   <si>
-    <t>VALOR PEDIDO</t>
-  </si>
-  <si>
-    <t>RETORNO DO ADVOGADO</t>
-  </si>
-  <si>
-    <t># PROCESSO</t>
-  </si>
-  <si>
     <t>Mike Wasalski</t>
   </si>
   <si>
     <t>Amiel Dias de Luiz</t>
+  </si>
+  <si>
+    <t>NUMERO</t>
+  </si>
+  <si>
+    <t>ADVOGADO</t>
+  </si>
+  <si>
+    <t>PEDIDO</t>
+  </si>
+  <si>
+    <t>ESPERADO</t>
+  </si>
+  <si>
+    <t>RETORNO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -428,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481A56BF-7B1C-6F47-A263-ABC4659C73E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,30 +455,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>15000</v>
@@ -487,13 +492,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>35000</v>
@@ -507,13 +512,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>1000000</v>
